--- a/longtengFramework/data/测试场景.xlsx
+++ b/longtengFramework/data/测试场景.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>场景名称</t>
   </si>
   <si>
     <t>加油卡接口测试-绑定加油卡</t>
-  </si>
-  <si>
-    <t>加油卡接口测试</t>
   </si>
   <si>
     <t>接口测试</t>
@@ -77,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -103,9 +100,137 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,134 +243,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -262,187 +259,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +468,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -482,30 +494,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,26 +515,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,8 +525,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,16 +550,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1398,13 +1395,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
@@ -1417,11 +1414,6 @@
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1447,110 +1439,110 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>7</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>14</v>
       </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1577,10 +1569,10 @@
   <sheetData>
     <row r="4" spans="6:7">
       <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="6:7">

--- a/longtengFramework/data/测试场景.xlsx
+++ b/longtengFramework/data/测试场景.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>场景名称</t>
   </si>
   <si>
     <t>加油卡接口测试-绑定加油卡</t>
+  </si>
+  <si>
+    <t>加油卡接口测试</t>
   </si>
   <si>
     <t>接口测试</t>
@@ -75,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -101,22 +104,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,54 +171,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,9 +215,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,40 +241,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,187 +262,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,32 +471,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,46 +539,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1395,13 +1398,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
@@ -1414,6 +1417,11 @@
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1439,110 +1447,110 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1569,10 +1577,10 @@
   <sheetData>
     <row r="4" spans="6:7">
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="6:7">
